--- a/Version_on_pcloud/Data/Data_KS24-628/K24-628_011725/Std_Diads.xlsx
+++ b/Version_on_pcloud/Data/Data_KS24-628/K24-628_011725/Std_Diads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,570 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FG04-A1-4-end_r4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>104.4725421906221</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01030400604695316</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1282.917834741015</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.009643759981070558</v>
+      </c>
+      <c r="F5" t="n">
+        <v>448.0267500980123</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1282.917834741015</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1359.698164192447</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.056225722901189</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.77138146970799</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8037015053342291</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.112451445802377</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>1387.390426934137</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.00362910926304916</v>
+      </c>
+      <c r="P5" t="n">
+        <v>937.6496287667685</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1387.390376931637</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2233.089360314984</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8339696550897382</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4.217709781270795</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.7905691199824767</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.667939310179476</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="n">
+        <v>1408.902604795946</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>289.8957304581887</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.102959914022693</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="n">
+        <v>1.059308072487734</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.093786635404652</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.1252854234744653</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.004715011872260414</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.040650406504036</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.04545454545468</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.06780241098285758</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.001778851352368381</v>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FG04-A1-4-end_r5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>104.5610514800469</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00695082593776542</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1282.744328752736</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.006719351221841008</v>
+      </c>
+      <c r="F6" t="n">
+        <v>794.3897225746861</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1282.744328752736</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2211.064665212104</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9539677945644137</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.553231162327025</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8386422366079784</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.907935589128827</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>1387.305430235283</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.001778848047095728</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1569.318430585318</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1387.305380232783</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3681.435083406727</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8145827814032167</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.681459600320317</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8101350934399023</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.629165562806433</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>1408.645515436621</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>482.2210889286434</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.400127943361283</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1369.675602350776</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>61.49521118179905</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.4068474105844022</v>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="n">
+        <v>1.082720588235546</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.050931677018681</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1578255542482704</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.002401762680092389</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.069327731092796</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.061102831594761</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1129463520438888</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0010381357480131</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FG04-A1-4-end_r6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>104.5577254032123</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003365085694519143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1282.747293844768</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002893265966532584</v>
+      </c>
+      <c r="F7" t="n">
+        <v>812.0729995905087</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1282.747343847268</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2260.96794372806</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9798151307362469</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.984389177445062</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7801933744033556</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.959630261472494</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>1387.30511925298</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.001718375331050133</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1642.874120190048</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1387.30506925048</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3813.066914084321</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.7933294728242311</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.7222863019269</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.845941789316536</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.586658945648462</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>1262.645689311128</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>336.6413623911615</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.934126965283146</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1408.736103788638</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>495.8833835584379</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.377342814054555</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1369.62623371849</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>64.33479429844708</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.3962247710194916</v>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="n">
+        <v>1.061619718309912</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.048267326732831</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.120751864703514</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.002413120818523268</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.138392857142937</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.119195046439684</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.2195822647996912</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0009657824212757807</v>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FG04-A1-4-end_r7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>104.5630018904394</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003685807505175744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1282.728298696295</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.003008060884219988</v>
+      </c>
+      <c r="F8" t="n">
+        <v>725.8386029718442</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1282.728348698795</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2024.931412214813</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9684986952308162</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.62060463501679</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8115097217768663</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.936997390461632</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1387.291400591734</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.002129964009563426</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1450.196279884637</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1387.291350589234</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3403.49566928703</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8157315956963123</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3.764551513347861</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.8078612665654947</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.631463191392625</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>1262.547766866687</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>298.5001793549031</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.835864574836197</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1408.62845917607</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>445.265427688452</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.359126430101893</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="n">
+        <v>1.055062166962331</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.006112469437634</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.1066552737191979</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.00266863374658067</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.043659043658954</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.041055718474926</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0712281227009865</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.001124994743140844</v>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
